--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_message/hzero-data-message-template-open.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
   <si>
     <r>
       <rPr>
@@ -2051,7 +2051,7 @@
     <t>project</t>
   </si>
   <si>
-    <t>RDUCM_MEMBER</t>
+    <t>RDUCM_MEMBER_PROJECT</t>
   </si>
   <si>
     <t>zh_CN</t>
@@ -2082,7 +2082,7 @@
     <t>hmsg_message_template-11</t>
   </si>
   <si>
-    <t>RDUCM.PERMISSION.APPORVED.WEB</t>
+    <t>RDUCM.PERMISSION.APPROVED.WEB</t>
   </si>
   <si>
     <t>权限审批结果（通过）</t>
@@ -2228,7 +2228,7 @@
     <t>hmsg_template_server-10</t>
   </si>
   <si>
-    <t>RDUCM.PERMISSION.APPORVED</t>
+    <t>RDUCM.PERMISSION.APPROVED</t>
   </si>
   <si>
     <t>hmsg_template_server-11</t>
@@ -2271,6 +2271,9 @@
   </si>
   <si>
     <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>RDUCM.PERMISSION.APPORVED.WEB</t>
   </si>
   <si>
     <t>hmsg_template_server_line-17</t>
@@ -2281,9 +2284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -2367,9 +2370,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2384,15 +2408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,6 +2423,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2421,9 +2460,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,29 +2490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2473,30 +2506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2504,17 +2513,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2612,7 +2615,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2624,55 +2711,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,91 +2753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2786,7 +2783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,6 +2897,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2912,31 +2939,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2956,6 +2970,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2970,36 +2993,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3008,133 +3011,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4030,8 +4033,8 @@
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4513,8 +4516,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4803,7 +4806,6 @@
       <c r="H14" t="s">
         <v>99</v>
       </c>
-      <c r="I14"/>
       <c r="L14">
         <v>0</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4855,7 +4857,7 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" t="str">
         <f>E11</f>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -2271,9 +2271,6 @@
   </si>
   <si>
     <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>RDUCM.PERMISSION.APPORVED.WEB</t>
   </si>
   <si>
     <t>hmsg_template_server_line-17</t>
@@ -2286,8 +2283,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2377,21 +2374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2415,7 +2397,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2423,7 +2449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2453,27 +2479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2482,9 +2487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2506,18 +2510,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2615,31 +2612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2651,43 +2624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,13 +2666,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,73 +2786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,21 +2893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2935,6 +2917,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2955,6 +2967,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2969,175 +2990,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4033,8 +4030,8 @@
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4516,8 +4513,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4846,7 +4843,7 @@
         <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" t="str">
         <f>E11</f>
